--- a/QLTYT/App_Data/uploads/Book1.xlsx
+++ b/QLTYT/App_Data/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEF31DE-3A4F-46BB-BEB7-404CAAC1C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC6CDC-C765-4860-9905-A2F2D77D1CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CFC4F939-3440-4E90-A29C-52E242A2E90B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CFC4F939-3440-4E90-A29C-52E242A2E90B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
-  <si>
-    <t>Nguyen Van A</t>
-  </si>
-  <si>
-    <t>huyen@gmail.com</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>gfg</t>
-  </si>
-  <si>
-    <t>fgf</t>
-  </si>
-  <si>
-    <t>gffg</t>
-  </si>
-  <si>
-    <t>gf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Thái Hoàng Anh</t>
+  </si>
+  <si>
+    <t>haonganh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thà</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mạnh</t>
+  </si>
+  <si>
+    <t>thanhhoa123@gmail.com</t>
+  </si>
+  <si>
+    <t>vandung@gmail.com</t>
+  </si>
+  <si>
+    <t>nngoctha123@gmail.com</t>
+  </si>
+  <si>
+    <t>trungnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>nvmanh09@gmail.com</t>
+  </si>
+  <si>
+    <t>Quận 11</t>
+  </si>
+  <si>
+    <t>Quận Bình Chánh</t>
+  </si>
+  <si>
+    <t>Quận 1</t>
   </si>
 </sst>
 </file>
@@ -412,10 +436,13 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -425,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -440,22 +467,22 @@
         <v>1</v>
       </c>
       <c r="H1" s="1">
-        <v>42005</v>
+        <v>39814</v>
       </c>
       <c r="I1">
-        <v>9888</v>
+        <v>339634532</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L1">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="M1">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -466,37 +493,37 @@
         <v>2</v>
       </c>
       <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>1234466</v>
+      </c>
+      <c r="F2">
+        <v>1234466</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1234466</v>
-      </c>
-      <c r="F2">
-        <v>1234466</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
       <c r="H2" s="1">
-        <v>42005</v>
+        <v>39448</v>
       </c>
       <c r="I2">
-        <v>555</v>
-      </c>
-      <c r="J2">
-        <v>55</v>
+        <v>984567386</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -504,40 +531,40 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1234466</v>
+      </c>
+      <c r="F3">
+        <v>1234466</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1234466</v>
-      </c>
-      <c r="F3">
-        <v>1234466</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
       <c r="H3" s="1">
-        <v>42005</v>
+        <v>39814</v>
       </c>
       <c r="I3">
-        <v>55</v>
-      </c>
-      <c r="J3">
-        <v>55</v>
+        <v>345678755</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -545,40 +572,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>1234466</v>
+      </c>
+      <c r="F4">
+        <v>1234466</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1234466</v>
-      </c>
-      <c r="F4">
-        <v>1234466</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4" s="1">
-        <v>42005</v>
+        <v>39083</v>
       </c>
       <c r="I4">
-        <v>55</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
+        <v>897456755</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -586,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1234466</v>
@@ -604,22 +631,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>42005</v>
+        <v>38718</v>
       </c>
       <c r="I5">
-        <v>55</v>
-      </c>
-      <c r="J5">
-        <v>55</v>
+        <v>456753555</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L5">
-        <v>70</v>
+        <v>162.5</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>54.43</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -627,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1234466</v>
@@ -645,27 +672,32 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>42005</v>
+        <v>39814</v>
       </c>
       <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6">
-        <v>55</v>
+        <v>345627855</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{8FA4BBEF-3E15-42B6-9DB3-7843C5D6607F}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{0C7CF5D0-636D-420B-809C-7FD34A5F3567}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{B3B78065-4F13-408A-974B-CDDA1EFF52F1}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{AC758BE5-1076-432C-92B6-B7DEE96E20F9}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{E7D0A3C9-E6DA-4AE1-8DD5-BF2811479986}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{284A1CDE-78C0-4586-9CB5-E4EB3540B7D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
